--- a/biology/Médecine/Maladie_de_Bang/Maladie_de_Bang.xlsx
+++ b/biology/Médecine/Maladie_de_Bang/Maladie_de_Bang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie de Bang, appelée aussi fièvre ondulante de Bang[1], est une mélitococcie d'origine bovine (Brucella abortus bovis) se communiquant parfois à l'homme. Chez celui-ci, la symptomatologie est la même que celle de la brucellose.
-Son nom est dû au vétérinaire danois Bernhard Lauritz Frederik Bang qui découvrit Brucella abortus bovis en 1897 auquel fut donné le nom de « bacille de Bang ». Non seulement Bang isola le bacille mais montra son implication dans l'avortement infectieux chez les bovins[2].
-Cette maladie pourrait être la responsable de l'épidémie à Thèbes (430-429 av. J.-C.), décrite dans Œdipe roi de Sophocle[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie de Bang, appelée aussi fièvre ondulante de Bang, est une mélitococcie d'origine bovine (Brucella abortus bovis) se communiquant parfois à l'homme. Chez celui-ci, la symptomatologie est la même que celle de la brucellose.
+Son nom est dû au vétérinaire danois Bernhard Lauritz Frederik Bang qui découvrit Brucella abortus bovis en 1897 auquel fut donné le nom de « bacille de Bang ». Non seulement Bang isola le bacille mais montra son implication dans l'avortement infectieux chez les bovins.
+Cette maladie pourrait être la responsable de l'épidémie à Thèbes (430-429 av. J.-C.), décrite dans Œdipe roi de Sophocle.
 </t>
         </is>
       </c>
